--- a/Dataset/Folds/Fold_2/Excel/32.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7096" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7960" uniqueCount="1082">
   <si>
     <t>Doi</t>
   </si>
@@ -3469,6 +3469,322 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                          Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                          Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                          Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                          Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                          Abdulmoatani%Alsulami%moatani@hotmail.com%1,                          Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                          Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                          Trish M.%Perl%tperl@jhmi.edu%1,                          Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                           Jing-Jin%Liang%NULL%1,                           Qing-Tao%Zhou%NULL%1,                           Xiao-Guang%Li%NULL%1,                           Fei%Lin%NULL%1,                           Zhong-Hua%Deng%NULL%1,                           Bi-Ying%Zhang%NULL%1,                           Lu%Li%NULL%1,                           Xiao-Hua%Wang%NULL%1,                           Hong%Zhu%NULL%1,                           Qing-Bian%Ma%NULL%1,                           Xiao-Mei%Tong%NULL%1,                           Jie%Xu%NULL%1,                           Yong-Chang%Sun%NULL%1,                           Pei-Fang%Wei%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                           Xiao-Xin%Wu%NULL%0,                           Xian-Gao%Jiang%NULL%0,                           Kai-Jin%Xu%NULL%0,                           Ling-Jun%Ying%NULL%0,                           Chun-Lian%Ma%NULL%0,                           Shi-Bo%Li%NULL%0,                           Hua-Ying%Wang%NULL%0,                           Sheng%Zhang%NULL%0,                           Hai-Nv%Gao%NULL%0,                           Ji-Fang%Sheng%NULL%0,                           Hong-Liu%Cai%NULL%0,                           Yun-Qing%Qiu%NULL%0,                           Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                           Bijan J.%Ghassemieh%NULL%0,                           Michelle%Nichols%NULL%0,                           Richard%Kim%NULL%0,                           Keith R.%Jerome%NULL%0,                           Arun K.%Nalla%NULL%0,                           Alexander L.%Greninger%NULL%0,                           Sudhakar%Pipavath%NULL%0,                           Mark M.%Wurfel%NULL%0,                           Laura%Evans%NULL%0,                           Patricia A.%Kritek%NULL%0,                           T. Eoin%West%NULL%0,                           Andrew%Luks%NULL%0,                           Anthony%Gerbino%NULL%0,                           Chris R.%Dale%NULL%0,                           Jason D.%Goldman%NULL%0,                           Shane%O’Mahony%NULL%0,                           Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           Stephanie%Bialek%NULL%1,                           Ellen%Boundy%NULL%1,                           Virginia%Bowen%NULL%1,                           Nancy%Chow%NULL%1,                           Amanda%Cohn%NULL%0,                           Nicole%Dowling%NULL%1,                           Sascha%Ellington%NULL%1,                           Ryan%Gierke%NULL%1,                           Aron%Hall%NULL%1,                           Jessica%MacNeil%NULL%1,                           Priti%Patel%NULL%1,                           Georgina%Peacock%NULL%1,                           Tamara%Pilishvili%NULL%1,                           Hilda%Razzaghi%NULL%1,                           Nia%Reed%NULL%1,                           Matthew%Ritchey%NULL%1,                           Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                           Wenlin%Cheng%NULL%0,                           Lei%Yu%NULL%0,                           Ya-Kun%Liu%NULL%0,                           Xiaoyong%Hu%NULL%0,                           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                           Tangkai%Qi%NULL%0,                           Li%Liu%NULL%0,                           Yun%Ling%NULL%0,                           Zhiping%Qian%NULL%0,                           Tao%Li%NULL%0,                           Feng%Li%NULL%0,                           Qingnian%Xu%NULL%0,                           Yuyi%Zhang%NULL%0,                           Shuibao%Xu%NULL%0,                           Zhigang%Song%NULL%0,                           Yigang%Zeng%NULL%0,                           Yinzhong%Shen%NULL%0,                           Yuxin%Shi%NULL%0,                           Tongyu%Zhu%NULL%0,                           Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                           Dingyu%Zhang%NULL%0,                           Wenling%Wang%NULL%0,                           Xingwang%Li%NULL%0,                           Bo%Yang%NULL%0,                           Jingdong%Song%NULL%0,                           Xiang%Zhao%NULL%0,                           Baoying%Huang%NULL%0,                           Weifeng%Shi%NULL%0,                           Roujian%Lu%NULL%0,                           Peihua%Niu%NULL%0,                           Faxian%Zhan%NULL%0,                           Xuejun%Ma%NULL%0,                           Dayan%Wang%NULL%0,                           Wenbo%Xu%NULL%0,                           Guizhen%Wu%NULL%0,                           George F.%Gao%NULL%0,                           Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                           Simon A%Jones%NULL%1,                           Jie%Yang%NULL%1,                           Harish%Rajagopalan%NULL%1,                           Luke%O’Donnell%NULL%1,                           Yelena%Chernyak%NULL%1,                           Katie A%Tobin%NULL%1,                           Robert J%Cerfolio%NULL%1,                           Fritz%Francois%NULL%2,                           Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                           Mikael%Chetboun%NULL%0,                           Julien%Poissy%NULL%0,                           Violeta%Raverdy%NULL%0,                           Jerome%Noulette%NULL%0,                           Jerome%Noulette%NULL%0,                           Alain%Duhamel%NULL%0,                           Julien%Labreuche%NULL%0,                           Daniel%Mathieu%NULL%0,                           Francois%Pattou%francois.pattou@univ-lille.fr%0,                           Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                           Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                           Robert%Caizzo%NULL%0,                           Robert%Caizzo%NULL%0,                           Morgan%Caplan%NULL%0,                           Nicolas%Cousin%NULL%0,                           Thibault%Duburcq%NULL%0,                           Arthur%Durand%NULL%0,                           Ahmed%El kalioubie%NULL%0,                           Raphael%Favory%NULL%0,                           Bruno%Garcia%NULL%0,                           Patrick%Girardie%NULL%0,                           Julien%Goutay%NULL%0,                           Marion%Houard%NULL%0,                           Emmanuelle%Jaillette%NULL%0,                           Nicolas%Kostuj%NULL%0,                           Geoffrey%Ledoux%NULL%0,                           Daniel%Mathieu%NULL%0,                           Anne Sophie%Moreau%NULL%0,                           Christopher%Niles%NULL%0,                           Saad%Nseir%NULL%0,                           Thierry%Onimus%NULL%0,                           Erika%Parmentier%NULL%0,                           Sebastien%Préau%NULL%0,                           Laurent%Robriquet%NULL%0,                           Anahita%Rouze%NULL%0,                           Sophie%Six%NULL%0,                           Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                           Chen-Hsen%Lee%NULL%1,                           Cheng-Yi%Liu%NULL%1,                           Jia-Horng%Wang%NULL%1,                           Lee-Min%Wang%NULL%1,                           Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                           Xiaobo%Yang%NULL%1,                           Luyu%Yang%NULL%1,                           Xiaojing%Zou%NULL%0,                           Yaxin%Wang%NULL%0,                           Yongran%Wu%NULL%0,                           Ting%Zhou%NULL%1,                           Yin%Yuan%NULL%1,                           Hong%Qi%NULL%1,                           Shouzhi%Fu%NULL%0,                           Hong%Liu%NULL%0,                           Jia’an%Xia%NULL%1,                           Zhengqin%Xu%NULL%1,                           Yuan%Yu%NULL%0,                           Ruiting%Li%NULL%0,                           Yaqi%Ouyang%NULL%1,                           Rui%Wang%NULL%0,                           Lehao%Ren%NULL%1,                           Yingying%Hu%NULL%1,                           Dan%Xu%NULL%0,                           Xin%Zhao%NULL%1,                           Shiying%Yuan%shiying_yuan@163.com%0,                           Dingyu%Zhang%1813886398@qq.com%0,                           You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Wen-hua%Liang%NULL%0,                           Yi%Zhao%NULL%1,                           Heng-rui%Liang%NULL%1,                           Zi-sheng%Chen%NULL%1,                           Yi-min%Li%NULL%1,                           Xiao-qing%Liu%NULL%1,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Chun-quan%Ou%NULL%0,                           Li%Li%NULL%0,                           Ping-yan%Chen%NULL%0,                           Ling%Sang%NULL%1,                           Wei%Wang%NULL%0,                           Jian-fu%Li%NULL%1,                           Cai-chen%Li%NULL%1,                           Li-min%Ou%NULL%1,                           Bo%Cheng%NULL%1,                           Shan%Xiong%NULL%1,                           Zheng-yi%Ni%NULL%0,                           Jie%Xiang%NULL%0,                           Yu%Hu%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Lin-ling%Cheng%NULL%1,                           Feng%Ye%NULL%1,                           Shi-yue%Li%NULL%0,                           Jin-ping%Zheng%NULL%1,                           Nuo-fu%Zhang%NULL%1,                           Nan-shan%Zhong%NULL%0,                           Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                           Giacomo%Iapichino%NULL%1,                           Luca%Carenzo%NULL%1,                           Maurizio%Cecconi%NULL%1,                           Paola%Ferrazzi%NULL%1,                           Tim%Sebastian%NULL%1,                           Nils%Kucher%NULL%1,                           Jan-Dirk%Studt%NULL%1,                           Clara%Sacco%NULL%1,                           Alexia%Bertuzzi%NULL%1,                           Maria Teresa%Sandri%NULL%1,                           Stefano%Barco%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                           M.J.H.A.%Kruip%NULL%1,                           N.J.M.%van der Meer%NULL%1,                           M.S.%Arbous%NULL%1,                           D.A.M.P.J.%Gommers%NULL%1,                           K.M.%Kant%NULL%1,                           F.H.J.%Kaptein%NULL%1,                           J.%van Paassen%NULL%1,                           M.A.M.%Stals%NULL%1,                           M.V.%Huisman%NULL%1,                           H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                           Fang%Jiang%NULL%1,                           Wating%Su%NULL%1,                           Chang%Chen%NULL%1,                           Jingli%Chen%NULL%1,                           Wei%Mei%NULL%1,                           Li-Ying%Zhan%NULL%1,                           Yifan%Jia%NULL%1,                           Liangqing%Zhang%NULL%1,                           Danyong%Liu%NULL%1,                           Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                           Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                           Ewen M%Harrison%NULL%1,                           Christopher A%Green%NULL%1,                           Hayley E%Hardwick%NULL%1,                           Riinu%Pius%NULL%1,                           Lisa%Norman%NULL%1,                           Karl A%Holden%NULL%1,                           Jonathan M%Read%NULL%1,                           Frank%Dondelinger%NULL%1,                           Gail%Carson%NULL%1,                           Laura%Merson%NULL%1,                           James%Lee%NULL%1,                           Daniel%Plotkin%NULL%1,                           Louise%Sigfrid%NULL%1,                           Sophie%Halpin%NULL%1,                           Clare%Jackson%NULL%1,                           Carrol%Gamble%NULL%1,                           Peter W%Horby%NULL%1,                           Jonathan S%Nguyen-Van-Tam%NULL%1,                           Antonia%Ho%NULL%1,                           Clark D%Russell%NULL%1,                           Jake%Dunning%NULL%1,                           Peter JM%Openshaw%NULL%1,                           J Kenneth%Baillie%NULL%1,                           Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                           Li-Min%Liu%NULL%0,                           Wen%Yin%NULL%0,                           Wen%Wang%NULL%0,                           Lu-Lu%Guan%NULL%0,                           Ming-Li%Yuan%NULL%0,                           Yu-Lei%Li%NULL%0,                           Yi%Hu%NULL%0,                           Xu-Yan%Li%NULL%0,                           Bing%Sun%NULL%0,                           Peng%Peng%NULL%0,                           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                           Qiang%Zhou%NULL%1,                           Ruiqiang%Zheng%NULL%1,                           Xuyan%Li%NULL%1,                           Jianmin%Ling%NULL%1,                           Yumei%Chen%NULL%1,                           Jing%Jia%NULL%1,                           Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                           Anna Mara%Scandroglio%NULL%1,                           Giacomo%Monti%NULL%1,                           Maria Grazia%Calabrò%NULL%1,                           Giovanni%Landoni%NULL%1,                           Antonio%Dell'Acqua%NULL%1,                           Luigi%Beretta%NULL%1,                           Elena%Moizo%NULL%1,                           Alfredo%Ravizza%NULL%1,                           Fabrizio%Monaco%NULL%1,                           Corrado%Campochiaro%NULL%1,                           Marina%Pieri%NULL%1,                           Maria Luisa%Azzolini%NULL%1,                           Giovanni%Borghi%NULL%1,                           Martina%Crivellari%NULL%1,                           Caterina%Conte%NULL%1,                           Cristina%Mattioli%NULL%1,                           Paolo%Silvani%NULL%1,                           Milena%Mucci%NULL%1,                           Stefano%Turi%NULL%1,                           Stefano%Tentori%NULL%1,                           Martina%Baiardo Redaelli%NULL%1,                           Marianna%Sartorelli%NULL%1,                           Piera%Angelillo%NULL%1,                           Alessandro%Belletti%NULL%1,                           Pasquale%Nardelli%NULL%1,                           Francesco Giuseppe%Nisi%NULL%1,                           Gabriele%Valsecchi%NULL%1,                           Cristina%Barberio%NULL%1,                           Fabio%Ciceri%NULL%1,                           Ary%Serpa Neto%NULL%1,                           Lorenzo%Dagna%NULL%1,                           Rinaldo%Bellomo%NULL%1,                           Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                           Min%Zhou%NULL%0,                           Xuan%Dong%NULL%0,                           Jieming%Qu%NULL%0,                           Fengyun%Gong%NULL%0,                           Yang%Han%NULL%0,                           Yang%Qiu%NULL%0,                           Jingli%Wang%NULL%0,                           Ying%Liu%NULL%0,                           Yuan%Wei%NULL%0,                           Jia'an%Xia%NULL%0,                           Ting%Yu%NULL%0,                           Xinxin%Zhang%NULL%0,                           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                           Ali S.%Omrani%NULL%1,                           Kamran%Baig%NULL%1,                           Abdelkarim%Bahloul%NULL%1,                           Fatehi%Elzein%NULL%1,                           Mohammad Abdul%Matin%NULL%1,                           Mohei A.A.%Selim%NULL%1,                           Mohammed Al%Mutairi%NULL%1,                           Daifullah Al%Nakhli%NULL%1,                           Amal Y. Al%Aidaroos%NULL%1,                           Nisreen Al%Sherbeeni%NULL%1,                           Hesham I.%Al-Khashan%NULL%1,                           Ziad A.%Memish%zmemish@yahoo.com%1,                           Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                           Badr%Alsayed%NULL%1,                           Sameh%Embarak%NULL%1,                           Taha%Yaseen%NULL%1,                           Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                           Shamsudeen F.%Fagbo%NULL%1,                           Vicky J.%Fang%NULL%1,                           Leila%Skakni%NULL%1,                           Mercy%Joseph%NULL%1,                           Tariq A.%Wani%NULL%1,                           Benjamin J.%Cowling%NULL%0,                           Malik%Peiris%NULL%1,                           Ahmed%Hakawi%NULL%1,                           Renee W.Y.%Chan%NULL%2,                           Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                           Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                           Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                           Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                           Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                           Abdulmoatani%Alsulami%moatani@hotmail.com%1,                           Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                           Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                           Trish M.%Perl%tperl@jhmi.edu%1,                           Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                            Jing-Jin%Liang%NULL%1,                            Qing-Tao%Zhou%NULL%1,                            Xiao-Guang%Li%NULL%1,                            Fei%Lin%NULL%1,                            Zhong-Hua%Deng%NULL%1,                            Bi-Ying%Zhang%NULL%1,                            Lu%Li%NULL%1,                            Xiao-Hua%Wang%NULL%1,                            Hong%Zhu%NULL%1,                            Qing-Bian%Ma%NULL%1,                            Xiao-Mei%Tong%NULL%1,                            Jie%Xu%NULL%1,                            Yong-Chang%Sun%NULL%1,                            Pei-Fang%Wei%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                            Xiao-Xin%Wu%NULL%0,                            Xian-Gao%Jiang%NULL%0,                            Kai-Jin%Xu%NULL%0,                            Ling-Jun%Ying%NULL%0,                            Chun-Lian%Ma%NULL%0,                            Shi-Bo%Li%NULL%0,                            Hua-Ying%Wang%NULL%0,                            Sheng%Zhang%NULL%0,                            Hai-Nv%Gao%NULL%0,                            Ji-Fang%Sheng%NULL%0,                            Hong-Liu%Cai%NULL%0,                            Yun-Qing%Qiu%NULL%0,                            Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                            Bijan J.%Ghassemieh%NULL%0,                            Michelle%Nichols%NULL%0,                            Richard%Kim%NULL%0,                            Keith R.%Jerome%NULL%0,                            Arun K.%Nalla%NULL%0,                            Alexander L.%Greninger%NULL%0,                            Sudhakar%Pipavath%NULL%0,                            Mark M.%Wurfel%NULL%0,                            Laura%Evans%NULL%0,                            Patricia A.%Kritek%NULL%0,                            T. Eoin%West%NULL%0,                            Andrew%Luks%NULL%0,                            Anthony%Gerbino%NULL%0,                            Chris R.%Dale%NULL%0,                            Jason D.%Goldman%NULL%0,                            Shane%O’Mahony%NULL%0,                            Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            Stephanie%Bialek%NULL%1,                            Ellen%Boundy%NULL%1,                            Virginia%Bowen%NULL%1,                            Nancy%Chow%NULL%1,                            Amanda%Cohn%NULL%0,                            Nicole%Dowling%NULL%1,                            Sascha%Ellington%NULL%1,                            Ryan%Gierke%NULL%1,                            Aron%Hall%NULL%1,                            Jessica%MacNeil%NULL%1,                            Priti%Patel%NULL%1,                            Georgina%Peacock%NULL%1,                            Tamara%Pilishvili%NULL%1,                            Hilda%Razzaghi%NULL%1,                            Nia%Reed%NULL%1,                            Matthew%Ritchey%NULL%1,                            Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                            Wenlin%Cheng%NULL%0,                            Lei%Yu%NULL%0,                            Ya-Kun%Liu%NULL%0,                            Xiaoyong%Hu%NULL%0,                            Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                            Tangkai%Qi%NULL%0,                            Li%Liu%NULL%0,                            Yun%Ling%NULL%0,                            Zhiping%Qian%NULL%0,                            Tao%Li%NULL%0,                            Feng%Li%NULL%0,                            Qingnian%Xu%NULL%0,                            Yuyi%Zhang%NULL%0,                            Shuibao%Xu%NULL%0,                            Zhigang%Song%NULL%0,                            Yigang%Zeng%NULL%0,                            Yinzhong%Shen%NULL%0,                            Yuxin%Shi%NULL%0,                            Tongyu%Zhu%NULL%0,                            Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                            Dingyu%Zhang%NULL%0,                            Wenling%Wang%NULL%0,                            Xingwang%Li%NULL%0,                            Bo%Yang%NULL%0,                            Jingdong%Song%NULL%0,                            Xiang%Zhao%NULL%0,                            Baoying%Huang%NULL%0,                            Weifeng%Shi%NULL%0,                            Roujian%Lu%NULL%0,                            Peihua%Niu%NULL%0,                            Faxian%Zhan%NULL%0,                            Xuejun%Ma%NULL%0,                            Dayan%Wang%NULL%0,                            Wenbo%Xu%NULL%0,                            Guizhen%Wu%NULL%0,                            George F.%Gao%NULL%0,                            Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                            Simon A%Jones%NULL%1,                            Jie%Yang%NULL%1,                            Harish%Rajagopalan%NULL%1,                            Luke%O’Donnell%NULL%1,                            Yelena%Chernyak%NULL%1,                            Katie A%Tobin%NULL%1,                            Robert J%Cerfolio%NULL%1,                            Fritz%Francois%NULL%2,                            Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                            Mikael%Chetboun%NULL%0,                            Julien%Poissy%NULL%0,                            Violeta%Raverdy%NULL%0,                            Jerome%Noulette%NULL%0,                            Jerome%Noulette%NULL%0,                            Alain%Duhamel%NULL%0,                            Julien%Labreuche%NULL%0,                            Daniel%Mathieu%NULL%0,                            Francois%Pattou%francois.pattou@univ-lille.fr%0,                            Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                            Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                            Robert%Caizzo%NULL%0,                            Robert%Caizzo%NULL%0,                            Morgan%Caplan%NULL%0,                            Nicolas%Cousin%NULL%0,                            Thibault%Duburcq%NULL%0,                            Arthur%Durand%NULL%0,                            Ahmed%El kalioubie%NULL%0,                            Raphael%Favory%NULL%0,                            Bruno%Garcia%NULL%0,                            Patrick%Girardie%NULL%0,                            Julien%Goutay%NULL%0,                            Marion%Houard%NULL%0,                            Emmanuelle%Jaillette%NULL%0,                            Nicolas%Kostuj%NULL%0,                            Geoffrey%Ledoux%NULL%0,                            Daniel%Mathieu%NULL%0,                            Anne Sophie%Moreau%NULL%0,                            Christopher%Niles%NULL%0,                            Saad%Nseir%NULL%0,                            Thierry%Onimus%NULL%0,                            Erika%Parmentier%NULL%0,                            Sebastien%Préau%NULL%0,                            Laurent%Robriquet%NULL%0,                            Anahita%Rouze%NULL%0,                            Sophie%Six%NULL%0,                            Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                            Chen-Hsen%Lee%NULL%1,                            Cheng-Yi%Liu%NULL%1,                            Jia-Horng%Wang%NULL%1,                            Lee-Min%Wang%NULL%1,                            Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                            Xiaobo%Yang%NULL%1,                            Luyu%Yang%NULL%1,                            Xiaojing%Zou%NULL%0,                            Yaxin%Wang%NULL%0,                            Yongran%Wu%NULL%0,                            Ting%Zhou%NULL%1,                            Yin%Yuan%NULL%1,                            Hong%Qi%NULL%1,                            Shouzhi%Fu%NULL%0,                            Hong%Liu%NULL%0,                            Jia’an%Xia%NULL%1,                            Zhengqin%Xu%NULL%1,                            Yuan%Yu%NULL%0,                            Ruiting%Li%NULL%0,                            Yaqi%Ouyang%NULL%1,                            Rui%Wang%NULL%0,                            Lehao%Ren%NULL%1,                            Yingying%Hu%NULL%1,                            Dan%Xu%NULL%0,                            Xin%Zhao%NULL%1,                            Shiying%Yuan%shiying_yuan@163.com%0,                            Dingyu%Zhang%1813886398@qq.com%0,                            You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Wen-hua%Liang%NULL%0,                            Yi%Zhao%NULL%1,                            Heng-rui%Liang%NULL%1,                            Zi-sheng%Chen%NULL%1,                            Yi-min%Li%NULL%1,                            Xiao-qing%Liu%NULL%1,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Chun-quan%Ou%NULL%0,                            Li%Li%NULL%0,                            Ping-yan%Chen%NULL%0,                            Ling%Sang%NULL%1,                            Wei%Wang%NULL%0,                            Jian-fu%Li%NULL%1,                            Cai-chen%Li%NULL%1,                            Li-min%Ou%NULL%1,                            Bo%Cheng%NULL%1,                            Shan%Xiong%NULL%1,                            Zheng-yi%Ni%NULL%0,                            Jie%Xiang%NULL%0,                            Yu%Hu%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Lin-ling%Cheng%NULL%1,                            Feng%Ye%NULL%1,                            Shi-yue%Li%NULL%0,                            Jin-ping%Zheng%NULL%1,                            Nuo-fu%Zhang%NULL%1,                            Nan-shan%Zhong%NULL%0,                            Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                            Giacomo%Iapichino%NULL%1,                            Luca%Carenzo%NULL%1,                            Maurizio%Cecconi%NULL%1,                            Paola%Ferrazzi%NULL%1,                            Tim%Sebastian%NULL%1,                            Nils%Kucher%NULL%1,                            Jan-Dirk%Studt%NULL%1,                            Clara%Sacco%NULL%1,                            Alexia%Bertuzzi%NULL%1,                            Maria Teresa%Sandri%NULL%1,                            Stefano%Barco%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                            M.J.H.A.%Kruip%NULL%1,                            N.J.M.%van der Meer%NULL%1,                            M.S.%Arbous%NULL%1,                            D.A.M.P.J.%Gommers%NULL%1,                            K.M.%Kant%NULL%1,                            F.H.J.%Kaptein%NULL%1,                            J.%van Paassen%NULL%1,                            M.A.M.%Stals%NULL%1,                            M.V.%Huisman%NULL%1,                            H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                            Fang%Jiang%NULL%1,                            Wating%Su%NULL%1,                            Chang%Chen%NULL%1,                            Jingli%Chen%NULL%1,                            Wei%Mei%NULL%1,                            Li-Ying%Zhan%NULL%1,                            Yifan%Jia%NULL%1,                            Liangqing%Zhang%NULL%1,                            Danyong%Liu%NULL%1,                            Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                            Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                            Ewen M%Harrison%NULL%1,                            Christopher A%Green%NULL%1,                            Hayley E%Hardwick%NULL%1,                            Riinu%Pius%NULL%1,                            Lisa%Norman%NULL%1,                            Karl A%Holden%NULL%1,                            Jonathan M%Read%NULL%1,                            Frank%Dondelinger%NULL%1,                            Gail%Carson%NULL%1,                            Laura%Merson%NULL%1,                            James%Lee%NULL%1,                            Daniel%Plotkin%NULL%1,                            Louise%Sigfrid%NULL%1,                            Sophie%Halpin%NULL%1,                            Clare%Jackson%NULL%1,                            Carrol%Gamble%NULL%1,                            Peter W%Horby%NULL%1,                            Jonathan S%Nguyen-Van-Tam%NULL%1,                            Antonia%Ho%NULL%1,                            Clark D%Russell%NULL%1,                            Jake%Dunning%NULL%1,                            Peter JM%Openshaw%NULL%1,                            J Kenneth%Baillie%NULL%1,                            Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                            Li-Min%Liu%NULL%0,                            Wen%Yin%NULL%0,                            Wen%Wang%NULL%0,                            Lu-Lu%Guan%NULL%0,                            Ming-Li%Yuan%NULL%0,                            Yu-Lei%Li%NULL%0,                            Yi%Hu%NULL%0,                            Xu-Yan%Li%NULL%0,                            Bing%Sun%NULL%0,                            Peng%Peng%NULL%0,                            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                            Qiang%Zhou%NULL%1,                            Ruiqiang%Zheng%NULL%1,                            Xuyan%Li%NULL%1,                            Jianmin%Ling%NULL%1,                            Yumei%Chen%NULL%1,                            Jing%Jia%NULL%1,                            Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                            Anna Mara%Scandroglio%NULL%1,                            Giacomo%Monti%NULL%1,                            Maria Grazia%Calabrò%NULL%1,                            Giovanni%Landoni%NULL%1,                            Antonio%Dell'Acqua%NULL%1,                            Luigi%Beretta%NULL%1,                            Elena%Moizo%NULL%1,                            Alfredo%Ravizza%NULL%1,                            Fabrizio%Monaco%NULL%1,                            Corrado%Campochiaro%NULL%1,                            Marina%Pieri%NULL%1,                            Maria Luisa%Azzolini%NULL%1,                            Giovanni%Borghi%NULL%1,                            Martina%Crivellari%NULL%1,                            Caterina%Conte%NULL%1,                            Cristina%Mattioli%NULL%1,                            Paolo%Silvani%NULL%1,                            Milena%Mucci%NULL%1,                            Stefano%Turi%NULL%1,                            Stefano%Tentori%NULL%1,                            Martina%Baiardo Redaelli%NULL%1,                            Marianna%Sartorelli%NULL%1,                            Piera%Angelillo%NULL%1,                            Alessandro%Belletti%NULL%1,                            Pasquale%Nardelli%NULL%1,                            Francesco Giuseppe%Nisi%NULL%1,                            Gabriele%Valsecchi%NULL%1,                            Cristina%Barberio%NULL%1,                            Fabio%Ciceri%NULL%1,                            Ary%Serpa Neto%NULL%1,                            Lorenzo%Dagna%NULL%1,                            Rinaldo%Bellomo%NULL%1,                            Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                            Min%Zhou%NULL%0,                            Xuan%Dong%NULL%0,                            Jieming%Qu%NULL%0,                            Fengyun%Gong%NULL%0,                            Yang%Han%NULL%0,                            Yang%Qiu%NULL%0,                            Jingli%Wang%NULL%0,                            Ying%Liu%NULL%0,                            Yuan%Wei%NULL%0,                            Jia'an%Xia%NULL%0,                            Ting%Yu%NULL%0,                            Xinxin%Zhang%NULL%0,                            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                            Ali S.%Omrani%NULL%1,                            Kamran%Baig%NULL%1,                            Abdelkarim%Bahloul%NULL%1,                            Fatehi%Elzein%NULL%1,                            Mohammad Abdul%Matin%NULL%1,                            Mohei A.A.%Selim%NULL%1,                            Mohammed Al%Mutairi%NULL%1,                            Daifullah Al%Nakhli%NULL%1,                            Amal Y. Al%Aidaroos%NULL%1,                            Nisreen Al%Sherbeeni%NULL%1,                            Hesham I.%Al-Khashan%NULL%1,                            Ziad A.%Memish%zmemish@yahoo.com%1,                            Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                            Badr%Alsayed%NULL%1,                            Sameh%Embarak%NULL%1,                            Taha%Yaseen%NULL%1,                            Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                            Shamsudeen F.%Fagbo%NULL%1,                            Vicky J.%Fang%NULL%1,                            Leila%Skakni%NULL%1,                            Mercy%Joseph%NULL%1,                            Tariq A.%Wani%NULL%1,                            Benjamin J.%Cowling%NULL%0,                            Malik%Peiris%NULL%1,                            Ahmed%Hakawi%NULL%1,                            Renee W.Y.%Chan%NULL%2,                            Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                            Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                            Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                            Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                            Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                            Abdulmoatani%Alsulami%moatani@hotmail.com%1,                            Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                            Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                            Trish M.%Perl%tperl@jhmi.edu%1,                            Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%0, Jing-Jin%Liang%NULL%1, Qing-Tao%Zhou%NULL%1, Xiao-Guang%Li%NULL%1, Fei%Lin%NULL%1, Zhong-Hua%Deng%NULL%1, Bi-Ying%Zhang%NULL%1, Lu%Li%NULL%1, Xiao-Hua%Wang%NULL%1, Hong%Zhu%NULL%1, Qing-Bian%Ma%NULL%1, Xiao-Mei%Tong%NULL%1, Jie%Xu%NULL%1, Yong-Chang%Sun%NULL%1, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0, Xiao-Xin%Wu%NULL%0, Xian-Gao%Jiang%NULL%0, Kai-Jin%Xu%NULL%0, Ling-Jun%Ying%NULL%0, Chun-Lian%Ma%NULL%0, Shi-Bo%Li%NULL%0, Hua-Ying%Wang%NULL%0, Sheng%Zhang%NULL%0, Hai-Nv%Gao%NULL%0, Ji-Fang%Sheng%NULL%0, Hong-Liu%Cai%NULL%0, Yun-Qing%Qiu%NULL%0, Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0, Bijan J.%Ghassemieh%NULL%0, Michelle%Nichols%NULL%0, Richard%Kim%NULL%0, Keith R.%Jerome%NULL%0, Arun K.%Nalla%NULL%0, Alexander L.%Greninger%NULL%0, Sudhakar%Pipavath%NULL%0, Mark M.%Wurfel%NULL%0, Laura%Evans%NULL%0, Patricia A.%Kritek%NULL%0, T. Eoin%West%NULL%0, Andrew%Luks%NULL%0, Anthony%Gerbino%NULL%0, Chris R.%Dale%NULL%0, Jason D.%Goldman%NULL%0, Shane%O’Mahony%NULL%0, Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Stephanie%Bialek%NULL%2, Ellen%Boundy%NULL%2, Virginia%Bowen%NULL%2, Nancy%Chow%NULL%5, Amanda%Cohn%NULL%0, Nicole%Dowling%NULL%2, Sascha%Ellington%NULL%0, Ryan%Gierke%NULL%5, Aron%Hall%NULL%5, Jessica%MacNeil%NULL%2, Priti%Patel%NULL%2, Georgina%Peacock%NULL%4, Tamara%Pilishvili%NULL%5, Hilda%Razzaghi%NULL%3, Nia%Reed%NULL%2, Matthew%Ritchey%NULL%5, Erin%Sauber-Schatz%NULL%2]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0, Wenlin%Cheng%NULL%0, Lei%Yu%NULL%0, Ya-Kun%Liu%NULL%0, Xiaoyong%Hu%NULL%0, Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Most of the COVID-19 cases are mild.
+</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0, Tangkai%Qi%NULL%0, Li%Liu%NULL%0, Yun%Ling%NULL%0, Zhiping%Qian%NULL%0, Tao%Li%NULL%0, Feng%Li%NULL%0, Qingnian%Xu%NULL%0, Yuyi%Zhang%NULL%0, Shuibao%Xu%NULL%0, Zhigang%Song%NULL%0, Yigang%Zeng%NULL%0, Yinzhong%Shen%NULL%0, Yuxin%Shi%NULL%0, Tongyu%Zhu%NULL%0, Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>In December 2019, a cluster of patients with pneumonia of unknown cause was linked to a seafood wholesale market in Wuhan, China.
+ A previously unknown betacoronavirus was discovered through the use of unbiased sequencing in samples from patients with pneumonia.
+ Human airway epithelial cells were used to isolate a novel coronavirus, named 2019-nCoV, which formed a clade within the subgenus sarbecovirus, Orthocoronavirinae subfamily.
+ Different from both MERS-CoV and SARS-CoV, 2019-nCoV is the seventh member of the family of coronaviruses that infect humans.
+ Enhanced surveillance and further investigation are ongoing.
+ (Funded by the National Key Research and Development Program of China and the National Major Project for Control and Prevention of Infectious Disease in China.
+)</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0, Dingyu%Zhang%NULL%0, Wenling%Wang%NULL%0, Xingwang%Li%NULL%0, Bo%Yang%NULL%0, Jingdong%Song%NULL%0, Xiang%Zhao%NULL%0, Baoying%Huang%NULL%0, Weifeng%Shi%NULL%0, Roujian%Lu%NULL%0, Peihua%Niu%NULL%0, Faxian%Zhan%NULL%0, Xuejun%Ma%NULL%0, Dayan%Wang%NULL%0, Wenbo%Xu%NULL%0, Guizhen%Wu%NULL%0, George F.%Gao%NULL%0, Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0, Simon A%Jones%NULL%5, Jie%Yang%NULL%8, Harish%Rajagopalan%NULL%5, Luke%O’Donnell%NULL%5, Yelena%Chernyak%NULL%5, Katie A%Tobin%NULL%5, Robert J%Cerfolio%NULL%5, Fritz%Francois%NULL%6, Leora I%Horwitz%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0, Mikael%Chetboun%NULL%0, Julien%Poissy%NULL%0, Violeta%Raverdy%NULL%0, Jerome%Noulette%NULL%0, Jerome%Noulette%NULL%0, Alain%Duhamel%NULL%0, Julien%Labreuche%NULL%0, Daniel%Mathieu%NULL%0, Francois%Pattou%francois.pattou@univ-lille.fr%0, Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0, Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0, Robert%Caizzo%NULL%0, Robert%Caizzo%NULL%0, Morgan%Caplan%NULL%0, Nicolas%Cousin%NULL%0, Thibault%Duburcq%NULL%0, Arthur%Durand%NULL%0, Ahmed%El kalioubie%NULL%0, Raphael%Favory%NULL%0, Bruno%Garcia%NULL%0, Patrick%Girardie%NULL%0, Julien%Goutay%NULL%0, Marion%Houard%NULL%0, Emmanuelle%Jaillette%NULL%0, Nicolas%Kostuj%NULL%0, Geoffrey%Ledoux%NULL%0, Daniel%Mathieu%NULL%0, Anne Sophie%Moreau%NULL%0, Christopher%Niles%NULL%0, Saad%Nseir%NULL%0, Thierry%Onimus%NULL%0, Erika%Parmentier%NULL%0, Sebastien%Préau%NULL%0, Laurent%Robriquet%NULL%0, Anahita%Rouze%NULL%0, Sophie%Six%NULL%0, Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%0, Chen-Hsen%Lee%NULL%2, Cheng-Yi%Liu%NULL%1, Jia-Horng%Wang%NULL%1, Lee-Min%Wang%NULL%2, Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier. Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%0, Xiaobo%Yang%NULL%0, Luyu%Yang%NULL%6, Xiaojing%Zou%NULL%0, Yaxin%Wang%NULL%0, Yongran%Wu%NULL%0, Ting%Zhou%NULL%2, Yin%Yuan%NULL%1, Hong%Qi%NULL%1, Shouzhi%Fu%NULL%0, Hong%Liu%NULL%0, Jia’an%Xia%NULL%1, Zhengqin%Xu%NULL%0, Yuan%Yu%NULL%0, Ruiting%Li%NULL%0, Yaqi%Ouyang%NULL%0, Rui%Wang%NULL%0, Lehao%Ren%NULL%1, Yingying%Hu%NULL%5, Dan%Xu%NULL%0, Xin%Zhao%NULL%1, Shiying%Yuan%shiying_yuan@163.com%0, Dingyu%Zhang%1813886398@qq.com%0, You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Wen-hua%Liang%NULL%0, Yi%Zhao%NULL%0, Heng-rui%Liang%NULL%4, Zi-sheng%Chen%NULL%4, Yi-min%Li%NULL%4, Xiao-qing%Liu%NULL%4, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Chun-quan%Ou%NULL%0, Li%Li%NULL%0, Ping-yan%Chen%NULL%0, Ling%Sang%NULL%0, Wei%Wang%NULL%0, Jian-fu%Li%NULL%4, Cai-chen%Li%NULL%4, Li-min%Ou%NULL%4, Bo%Cheng%NULL%4, Shan%Xiong%NULL%4, Zheng-yi%Ni%NULL%0, Jie%Xiang%NULL%0, Yu%Hu%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Lin-ling%Cheng%NULL%4, Feng%Ye%NULL%0, Shi-yue%Li%NULL%0, Jin-ping%Zheng%NULL%4, Nuo-fu%Zhang%NULL%4, Nan-shan%Zhong%NULL%0, Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%0, Giacomo%Iapichino%NULL%1, Luca%Carenzo%NULL%1, Maurizio%Cecconi%NULL%0, Paola%Ferrazzi%NULL%1, Tim%Sebastian%NULL%1, Nils%Kucher%NULL%1, Jan-Dirk%Studt%NULL%1, Clara%Sacco%NULL%1, Alexia%Bertuzzi%NULL%1, Maria Teresa%Sandri%NULL%1, Stefano%Barco%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%0, M.J.H.A.%Kruip%NULL%1, N.J.M.%van der Meer%NULL%1, M.S.%Arbous%NULL%1, D.A.M.P.J.%Gommers%NULL%1, K.M.%Kant%NULL%1, F.H.J.%Kaptein%NULL%1, J.%van Paassen%NULL%1, M.A.M.%Stals%NULL%1, M.V.%Huisman%NULL%1, H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0, Fang%Jiang%NULL%5, Wating%Su%NULL%3, Chang%Chen%NULL%3, Jingli%Chen%NULL%3, Wei%Mei%NULL%3, Li-Ying%Zhan%NULL%3, Yifan%Jia%NULL%3, Liangqing%Zhang%NULL%3, Danyong%Liu%NULL%3, Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%3, Zhengyuan%Xia%zyxia@hkucc.hku.hk%5]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%0, Ewen M%Harrison%NULL%0, Christopher A%Green%NULL%0, Hayley E%Hardwick%NULL%0, Riinu%Pius%NULL%0, Lisa%Norman%NULL%0, Karl A%Holden%NULL%0, Jonathan M%Read%NULL%1, Frank%Dondelinger%NULL%1, Gail%Carson%NULL%0, Laura%Merson%NULL%0, James%Lee%NULL%1, Daniel%Plotkin%NULL%1, Louise%Sigfrid%NULL%0, Sophie%Halpin%NULL%0, Clare%Jackson%NULL%0, Carrol%Gamble%NULL%0, Peter W%Horby%NULL%0, Jonathan S%Nguyen-Van-Tam%NULL%0, Antonia%Ho%NULL%0, Clark D%Russell%NULL%0, Jake%Dunning%NULL%0, Peter JM%Openshaw%NULL%0, J Kenneth%Baillie%NULL%0, Malcolm G%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The current outbreak of coronavirus disease (COVID-19) pneumonia caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) in Wuhan, China, spreads across national and international borders.
+ The overall death rate of COVID-19 pneumonia in the Chinese population was 4%.
+</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0, Li-Min%Liu%NULL%0, Wen%Yin%NULL%0, Wen%Wang%NULL%0, Lu-Lu%Guan%NULL%0, Ming-Li%Yuan%NULL%0, Yu-Lei%Li%NULL%0, Yi%Hu%NULL%0, Xu-Yan%Li%NULL%0, Bing%Sun%NULL%0, Peng%Peng%NULL%0, Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%0, Qiang%Zhou%NULL%1, Ruiqiang%Zheng%NULL%1, Xuyan%Li%NULL%1, Jianmin%Ling%NULL%2, Yumei%Chen%NULL%1, Jing%Jia%NULL%1, Cuihong%Xie%xiecuihong08@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%0, Anna Mara%Scandroglio%NULL%1, Giacomo%Monti%NULL%3, Maria Grazia%Calabrò%NULL%1, Giovanni%Landoni%NULL%4, Antonio%Dell'Acqua%NULL%1, Luigi%Beretta%NULL%3, Elena%Moizo%NULL%1, Alfredo%Ravizza%NULL%1, Fabrizio%Monaco%NULL%1, Corrado%Campochiaro%NULL%2, Marina%Pieri%NULL%1, Maria Luisa%Azzolini%NULL%1, Giovanni%Borghi%NULL%1, Martina%Crivellari%NULL%1, Caterina%Conte%NULL%3, Cristina%Mattioli%NULL%1, Paolo%Silvani%NULL%1, Milena%Mucci%NULL%1, Stefano%Turi%NULL%1, Stefano%Tentori%NULL%1, Martina%Baiardo Redaelli%NULL%1, Marianna%Sartorelli%NULL%1, Piera%Angelillo%NULL%1, Alessandro%Belletti%NULL%1, Pasquale%Nardelli%NULL%1, Francesco Giuseppe%Nisi%NULL%1, Gabriele%Valsecchi%NULL%1, Cristina%Barberio%NULL%1, Fabio%Ciceri%NULL%0, Ary%Serpa Neto%NULL%1, Lorenzo%Dagna%NULL%4, Rinaldo%Bellomo%NULL%1, Alberto%Zangrillo%NULL%4]</t>
+  </si>
+  <si>
+    <t>S. Karger AG</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%0, Xuan%Dong%NULL%0, Jieming%Qu%NULL%0, Fengyun%Gong%NULL%0, Yang%Han%NULL%0, Yang%Qiu%NULL%0, Jingli%Wang%NULL%0, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%0, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%0, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%0, Ali S.%Omrani%NULL%1, Kamran%Baig%NULL%1, Abdelkarim%Bahloul%NULL%1, Fatehi%Elzein%NULL%1, Mohammad Abdul%Matin%NULL%1, Mohei A.A.%Selim%NULL%1, Mohammed Al%Mutairi%NULL%1, Daifullah Al%Nakhli%NULL%1, Amal Y. Al%Aidaroos%NULL%1, Nisreen Al%Sherbeeni%NULL%1, Hesham I.%Al-Khashan%NULL%1, Ziad A.%Memish%zmemish@yahoo.com%1, Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%0, Badr%Alsayed%NULL%1, Sameh%Embarak%NULL%1, Taha%Yaseen%NULL%1, Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Authors. Production and hosting by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East Respiratory syndrome (MERS) first emerged in Saudi Arabia in 2012 and remains a global health concern.
+ The objective of this study was to compare the clinical features and risk factors for adverse outcome in patients with RT-PCR confirmed MERS and in those with acute respiratory disease who were MERS-CoV negative, presenting to the King Fahad Medical City (KFMC) in Riyadh between October 2012 and May 2014. The demographics, clinical and laboratory characteristics and clinical outcomes of patients with RT-PCR confirmed MERS-CoV infection was compared with those testing negative MERS-CoV PCR.
+ Health care workers (HCW) with MERS were compared with MERS patients who were not health care workers.
+ One hundred and fifty nine patients were eligible for inclusion.
+ Forty eight tested positive for MERS CoV, 44 (92%) being hospital acquired infections and 23 were HCW.
+ There were 111 MERS-CoV negative patients with acute respiratory illnesses included in this study as “negative controls”.
+ Patient with confirmed MERS-CoV infection were not clinically distinguishable from those with negative MERS-CoV RT-PCR results although diarrhoea was commoner in MERS patients.
+ A high level of suspicion in initiating laboratory tests for MERS-CoV is therefore indicated.
+ Variables associated with adverse outcome were older age and diabetes as a co-morbid illness.
+ Interestingly, co-morbid illnesses other than diabetes were not significantly associated with poor outcome.
+ Health care workers with MERS had a markedly better clinical outcome compared to non HCW MERS patients.
+</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%0, Shamsudeen F.%Fagbo%NULL%1, Vicky J.%Fang%NULL%1, Leila%Skakni%NULL%1, Mercy%Joseph%NULL%1, Tariq A.%Wani%NULL%1, Benjamin J.%Cowling%NULL%0, Malik%Peiris%NULL%4, Ahmed%Hakawi%NULL%1, Renee W.Y.%Chan%NULL%2, Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%0, Khalid M.%Alghamdi%K.m.a02@hotmail.com%1, Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1, Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1, Fatmah%Salah%Fs4l_med2011@yahoo.com%1, Abdulmoatani%Alsulami%moatani@hotmail.com%1, Mayada F.%Bawayan%mayada-f-b@hotmail.com%1, Dhananjay%Vaidya%dvaidya@jhmi.edu%1, Trish M.%Perl%tperl@jhmi.edu%1, Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -3884,7 +4200,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>957</v>
+        <v>1035</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -3896,10 +4212,10 @@
         <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="3">
@@ -3916,7 +4232,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>958</v>
+        <v>1037</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -3928,10 +4244,10 @@
         <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="4">
@@ -3948,7 +4264,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>959</v>
+        <v>1039</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -3960,10 +4276,10 @@
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5">
@@ -3974,28 +4290,28 @@
         <v>43909.0</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>540</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>783</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
         <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>784</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -4012,7 +4328,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>960</v>
+        <v>1041</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -4024,10 +4340,10 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="7">
@@ -4044,7 +4360,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>961</v>
+        <v>1043</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -4056,10 +4372,10 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="8">
@@ -4073,10 +4389,10 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>1045</v>
       </c>
       <c r="E8" t="s">
-        <v>962</v>
+        <v>1046</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -4088,10 +4404,10 @@
         <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>716</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="9">
@@ -4105,10 +4421,10 @@
         <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>1048</v>
       </c>
       <c r="E9" t="s">
-        <v>963</v>
+        <v>1049</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -4120,10 +4436,10 @@
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10">
@@ -4140,7 +4456,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>964</v>
+        <v>1050</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -4152,10 +4468,10 @@
         <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="11">
@@ -4166,25 +4482,25 @@
         <v>43943.0</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>965</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>712</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
         <v>52</v>
@@ -4204,7 +4520,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>966</v>
+        <v>1051</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -4216,10 +4532,10 @@
         <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="13">
@@ -4230,25 +4546,25 @@
         <v>43868.0</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>967</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>712</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
         <v>52</v>
@@ -4262,28 +4578,28 @@
         <v>43903.0</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>549</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>783</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
         <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>784</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -4300,7 +4616,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>968</v>
+        <v>1053</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -4312,10 +4628,10 @@
         <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>716</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="16">
@@ -4329,10 +4645,10 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>481</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>969</v>
+        <v>1055</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -4344,10 +4660,10 @@
         <v>101</v>
       </c>
       <c r="I16" t="s">
-        <v>725</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="17">
@@ -4358,28 +4674,28 @@
         <v>43893.0</v>
       </c>
       <c r="C17" t="s">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>552</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>783</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
         <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>784</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -4396,7 +4712,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>970</v>
+        <v>1057</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -4408,10 +4724,10 @@
         <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="19">
@@ -4428,7 +4744,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>971</v>
+        <v>1059</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -4440,10 +4756,10 @@
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>716</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="20">
@@ -4460,7 +4776,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>972</v>
+        <v>1061</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -4472,10 +4788,10 @@
         <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>716</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="21">
@@ -4492,7 +4808,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>973</v>
+        <v>1063</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -4504,10 +4820,10 @@
         <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>716</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="22">
@@ -4524,7 +4840,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>974</v>
+        <v>1064</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -4536,10 +4852,10 @@
         <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>716</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="23">
@@ -4556,7 +4872,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>975</v>
+        <v>1066</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -4568,10 +4884,10 @@
         <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="24">
@@ -4585,10 +4901,10 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>1067</v>
       </c>
       <c r="E24" t="s">
-        <v>976</v>
+        <v>1068</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -4600,10 +4916,10 @@
         <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="25">
@@ -4617,10 +4933,10 @@
         <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>491</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>977</v>
+        <v>1070</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -4632,10 +4948,10 @@
         <v>139</v>
       </c>
       <c r="I25" t="s">
-        <v>725</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="26">
@@ -4652,7 +4968,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>978</v>
+        <v>1071</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -4664,10 +4980,10 @@
         <v>144</v>
       </c>
       <c r="I26" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="27">
@@ -4678,25 +4994,25 @@
         <v>43927.0</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>979</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>712</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s">
         <v>52</v>
@@ -4716,7 +5032,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>980</v>
+        <v>1073</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -4728,10 +5044,10 @@
         <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>716</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="29">
@@ -4742,25 +5058,25 @@
         <v>37834.0</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>712</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s">
         <v>52</v>
@@ -4774,28 +5090,28 @@
         <v>37929.0</v>
       </c>
       <c r="C30" t="s">
-        <v>352</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>564</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>807</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
         <v>52</v>
       </c>
       <c r="J30" t="s">
-        <v>808</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
@@ -4806,28 +5122,28 @@
         <v>42522.0</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>565</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>358</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
         <v>52</v>
       </c>
       <c r="J31" t="s">
-        <v>810</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -4838,28 +5154,28 @@
         <v>41716.0</v>
       </c>
       <c r="C32" t="s">
-        <v>359</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>566</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>812</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
         <v>52</v>
       </c>
       <c r="J32" t="s">
-        <v>808</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
@@ -4876,7 +5192,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>981</v>
+        <v>1074</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -4888,10 +5204,10 @@
         <v>153</v>
       </c>
       <c r="I33" t="s">
-        <v>716</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="34">
@@ -4908,7 +5224,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>982</v>
+        <v>1076</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -4920,10 +5236,10 @@
         <v>158</v>
       </c>
       <c r="I34" t="s">
-        <v>716</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="35">
@@ -4937,10 +5253,10 @@
         <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>1078</v>
       </c>
       <c r="E35" t="s">
-        <v>983</v>
+        <v>1079</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -4952,10 +5268,10 @@
         <v>163</v>
       </c>
       <c r="I35" t="s">
-        <v>708</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s">
-        <v>52</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="36">
@@ -4972,7 +5288,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>984</v>
+        <v>1081</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>
@@ -4984,10 +5300,10 @@
         <v>168</v>
       </c>
       <c r="I36" t="s">
-        <v>725</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
